--- a/products/6.xlsx
+++ b/products/6.xlsx
@@ -36,10 +36,10 @@
     <t>Tv50 C4 (Заказная позиция)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ck2 White Diamond </t>
-  </si>
-  <si>
     <t>Tv10 C4 (Готовый)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ck05 White Diamond </t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="C2">
         <v>203</v>
@@ -423,26 +423,26 @@
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="13.5" customHeight="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="C6">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
